--- a/data/2024/agwt_numbers_2024.xlsx
+++ b/data/2024/agwt_numbers_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfriendly\Desktop\kgun\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621847A6-4AB4-48FE-8259-7224A45A64C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44418093-25C4-4021-8E25-5DDCFC4B676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{2A615555-C3E1-48EF-9A5F-AF967DC9FA3E}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,16 +1308,16 @@
         <v>2024</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
